--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/149.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/149.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2888990577892879</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.946532968743235</v>
+        <v>-1.933816679895466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04224014725409444</v>
+        <v>0.04227372836018534</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2938497828402699</v>
+        <v>-0.2913516405567251</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2693858198132302</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.053377827987843</v>
+        <v>-2.036191601909756</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02384938150100847</v>
+        <v>0.02277186600991785</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2950820634289968</v>
+        <v>-0.2930511365345428</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2613397501483908</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.179252224025309</v>
+        <v>-2.159082389673451</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05249260494845532</v>
+        <v>0.0488147438074563</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3086692709629932</v>
+        <v>-0.3040087974568126</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2594986149937821</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.323541476609361</v>
+        <v>-2.299176194068277</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07157981364090474</v>
+        <v>0.06763184360308762</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3384440316808943</v>
+        <v>-0.3334127059596229</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2512027378496535</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.523454181312762</v>
+        <v>-2.494245919254134</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1046586631885322</v>
+        <v>0.1007296737758969</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3191816172175358</v>
+        <v>-0.3142875360168098</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2310702875462556</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.455440761093962</v>
+        <v>-2.424400868705288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2325282149422252</v>
+        <v>0.2242526623629547</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3822775954661552</v>
+        <v>-0.3770885845510657</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1995007571114956</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.319459912171226</v>
+        <v>-2.287077505562962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3253478522255639</v>
+        <v>0.3167919704128389</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4040717333191494</v>
+        <v>-0.3971087639736058</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1552674069827274</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.042556681562073</v>
+        <v>-2.008691596117491</v>
       </c>
       <c r="F9" t="n">
-        <v>0.444435214712441</v>
+        <v>0.4316466534841717</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3514691206998908</v>
+        <v>-0.3447266186160744</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09807301356729491</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.689407549573531</v>
+        <v>-1.653183756438087</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5238924918677833</v>
+        <v>0.5072698443527878</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2670038785927316</v>
+        <v>-0.2613257515671877</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02693406385979264</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.130004724022773</v>
+        <v>-1.0955198481636</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5048739054356066</v>
+        <v>0.4881943160450656</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2170673137874723</v>
+        <v>-0.2105014775226559</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.05781799925632246</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5583564751335625</v>
+        <v>-0.5266632112242073</v>
       </c>
       <c r="F12" t="n">
-        <v>0.408884503746905</v>
+        <v>0.3907945079005463</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.116693387681772</v>
+        <v>-0.1120606550893187</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1568592298279074</v>
       </c>
       <c r="E13" t="n">
-        <v>0.006311283833013174</v>
+        <v>0.0387433320763681</v>
       </c>
       <c r="F13" t="n">
-        <v>0.271374254448942</v>
+        <v>0.2526432974906743</v>
       </c>
       <c r="G13" t="n">
-        <v>0.008772924914285241</v>
+        <v>0.01396485592555657</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2693589468114476</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6056084634197614</v>
+        <v>0.6329697646433904</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01182397350416377</v>
+        <v>-0.02917956516079548</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1508604249772471</v>
+        <v>0.1552989711736095</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3958537602813362</v>
       </c>
       <c r="E15" t="n">
-        <v>1.14346389924489</v>
+        <v>1.169816307237701</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2325788647052863</v>
+        <v>-0.2488890619288274</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3048181160192966</v>
+        <v>0.3077119313354777</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5309903871507388</v>
       </c>
       <c r="E16" t="n">
-        <v>1.694516709763742</v>
+        <v>1.717989902921281</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6162795029960924</v>
+        <v>-0.6313413591019065</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4617119637721636</v>
+        <v>0.4628843823891633</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6677998680760291</v>
       </c>
       <c r="E17" t="n">
-        <v>2.299642401329397</v>
+        <v>2.318186472132029</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8330820440151251</v>
+        <v>-0.8509515725997566</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5965897463622183</v>
+        <v>0.5976570415166725</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8016787160423099</v>
       </c>
       <c r="E18" t="n">
-        <v>2.779135334816632</v>
+        <v>2.796435444645809</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.138908097281134</v>
+        <v>-1.153842929203039</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7589178931094475</v>
+        <v>0.7592683046512655</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9295707160449571</v>
       </c>
       <c r="E19" t="n">
-        <v>3.214788864326243</v>
+        <v>3.229758737402329</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.428091062358874</v>
+        <v>-1.442322151100961</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9400996408545806</v>
+        <v>0.9415728293783074</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.048964033558374</v>
       </c>
       <c r="E20" t="n">
-        <v>3.52904815536534</v>
+        <v>3.542282031261336</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.7037058005278</v>
+        <v>-1.716812652239888</v>
       </c>
       <c r="G20" t="n">
-        <v>1.12236766437935</v>
+        <v>1.120555744698532</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.153559519831368</v>
       </c>
       <c r="E21" t="n">
-        <v>3.897662116732787</v>
+        <v>3.908164242650693</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.970928182270183</v>
+        <v>-1.982922477336998</v>
       </c>
       <c r="G21" t="n">
-        <v>1.253523784385678</v>
+        <v>1.253201113757587</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.240811101347798</v>
       </c>
       <c r="E22" t="n">
-        <v>4.252595427488418</v>
+        <v>4.260739575739507</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.248010268770472</v>
+        <v>-2.257475030519788</v>
       </c>
       <c r="G22" t="n">
-        <v>1.408056734375546</v>
+        <v>1.408249460723546</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.309066048781444</v>
       </c>
       <c r="E23" t="n">
-        <v>4.368133413066296</v>
+        <v>4.377499621569476</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.543418878907848</v>
+        <v>-2.550432219912528</v>
       </c>
       <c r="G23" t="n">
-        <v>1.545055966841691</v>
+        <v>1.544141976736782</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.359671845634068</v>
       </c>
       <c r="E24" t="n">
-        <v>4.565053019183335</v>
+        <v>4.572656949640787</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.862813159082671</v>
+        <v>-2.863663637095625</v>
       </c>
       <c r="G24" t="n">
-        <v>1.624729331114488</v>
+        <v>1.623056116002306</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.392749587580367</v>
       </c>
       <c r="E25" t="n">
-        <v>4.588489711138601</v>
+        <v>4.596998871412417</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.088314666627338</v>
+        <v>-3.086536328052611</v>
       </c>
       <c r="G25" t="n">
-        <v>1.713672540716464</v>
+        <v>1.712146790461464</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.408964176433076</v>
       </c>
       <c r="E26" t="n">
-        <v>4.642680856080768</v>
+        <v>4.65164847145513</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.229848808463845</v>
+        <v>-3.224085998649028</v>
       </c>
       <c r="G26" t="n">
-        <v>1.83495873562825</v>
+        <v>1.830828259579069</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.410345535638272</v>
       </c>
       <c r="E27" t="n">
-        <v>4.634558608551044</v>
+        <v>4.643841594313041</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.366439227464536</v>
+        <v>-3.358487805561447</v>
       </c>
       <c r="G27" t="n">
-        <v>1.882909635029873</v>
+        <v>1.881544490064873</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.399346263244886</v>
       </c>
       <c r="E28" t="n">
-        <v>4.584175269029966</v>
+        <v>4.595546123561963</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.437802728027926</v>
+        <v>-3.42610409269952</v>
       </c>
       <c r="G28" t="n">
-        <v>1.865072227503241</v>
+        <v>1.863070501570605</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.378555744392207</v>
       </c>
       <c r="E29" t="n">
-        <v>4.485940313377447</v>
+        <v>4.500263385149261</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.496394457916092</v>
+        <v>-3.482921864157232</v>
       </c>
       <c r="G29" t="n">
-        <v>1.904311019946413</v>
+        <v>1.902912293875322</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.349583640028728</v>
       </c>
       <c r="E30" t="n">
-        <v>4.436044629918733</v>
+        <v>4.447022731514275</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.607381473594607</v>
+        <v>-3.591082226731748</v>
       </c>
       <c r="G30" t="n">
-        <v>1.930899955729951</v>
+        <v>1.926947605547861</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.313145633463471</v>
       </c>
       <c r="E31" t="n">
-        <v>4.245628077998602</v>
+        <v>4.257946503741599</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.555685550839803</v>
+        <v>-3.537696298311717</v>
       </c>
       <c r="G31" t="n">
-        <v>1.914810225768137</v>
+        <v>1.912357344975411</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.269462548385827</v>
       </c>
       <c r="E32" t="n">
-        <v>4.128805250100724</v>
+        <v>4.141831799167812</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.481011391230278</v>
+        <v>-3.464144185660055</v>
       </c>
       <c r="G32" t="n">
-        <v>1.825354539286252</v>
+        <v>1.824504791297343</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.219641555224072</v>
       </c>
       <c r="E33" t="n">
-        <v>3.902289009132876</v>
+        <v>3.916228088256781</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.486440580056322</v>
+        <v>-3.468944093758917</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786317233479626</v>
+        <v>1.785651451550172</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.164565954042034</v>
       </c>
       <c r="E34" t="n">
-        <v>3.734967497914739</v>
+        <v>3.749744644642826</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.447777776585014</v>
+        <v>-3.431924574413927</v>
       </c>
       <c r="G34" t="n">
-        <v>1.688537812831471</v>
+        <v>1.688531972639107</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.105871403997427</v>
       </c>
       <c r="E35" t="n">
-        <v>3.63761587135722</v>
+        <v>3.651370984421671</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.358850627512038</v>
+        <v>-3.343459530561724</v>
       </c>
       <c r="G35" t="n">
-        <v>1.623650355575306</v>
+        <v>1.622447275948397</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.045505729159626</v>
       </c>
       <c r="E36" t="n">
-        <v>3.431591405345275</v>
+        <v>3.449041900127816</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.279348088865877</v>
+        <v>-3.269538755767107</v>
       </c>
       <c r="G36" t="n">
-        <v>1.52747698782715</v>
+        <v>1.52818365110315</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.985739704576529</v>
       </c>
       <c r="E37" t="n">
-        <v>3.257539072428049</v>
+        <v>3.274532572158136</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.20021129226649</v>
+        <v>-3.191828426152537</v>
       </c>
       <c r="G37" t="n">
-        <v>1.402435549225547</v>
+        <v>1.403895597316456</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9290556090655394</v>
       </c>
       <c r="E38" t="n">
-        <v>3.136404722517718</v>
+        <v>3.154631962884622</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.081140720332658</v>
+        <v>-3.074698988155569</v>
       </c>
       <c r="G38" t="n">
-        <v>1.344585523767563</v>
+        <v>1.345468852862563</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8748867773055294</v>
       </c>
       <c r="E39" t="n">
-        <v>2.810107334969079</v>
+        <v>2.832901605764345</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.948214292016103</v>
+        <v>-2.944676595491831</v>
       </c>
       <c r="G39" t="n">
-        <v>1.212309546875508</v>
+        <v>1.217034262497688</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8228503906951216</v>
       </c>
       <c r="E40" t="n">
-        <v>2.557243066152692</v>
+        <v>2.58113237301614</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.84340181971404</v>
+        <v>-2.84236591559354</v>
       </c>
       <c r="G40" t="n">
-        <v>1.188220213423605</v>
+        <v>1.191753529803604</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7710391806094948</v>
       </c>
       <c r="E41" t="n">
-        <v>2.383062249003466</v>
+        <v>2.406501861054914</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.758623397291381</v>
+        <v>-2.758460601929245</v>
       </c>
       <c r="G41" t="n">
-        <v>1.067277129813183</v>
+        <v>1.071432426679909</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.719103084338746</v>
       </c>
       <c r="E42" t="n">
-        <v>2.154650865613618</v>
+        <v>2.181597513179429</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.660317629306453</v>
+        <v>-2.663182973684861</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9731434492480263</v>
+        <v>0.9783470606440249</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6651633589674038</v>
       </c>
       <c r="E43" t="n">
-        <v>2.039051558015922</v>
+        <v>2.064091382775006</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.585565357124064</v>
+        <v>-2.587340775602609</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8678783620377818</v>
+        <v>0.8731520557421441</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6093067485939296</v>
       </c>
       <c r="E44" t="n">
-        <v>1.832778883828523</v>
+        <v>1.859233495187697</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.573538940999249</v>
+        <v>-2.574906276036385</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7933589675258927</v>
+        <v>0.7983975934876186</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5511013364837047</v>
       </c>
       <c r="E45" t="n">
-        <v>1.595553190113859</v>
+        <v>1.623294103841124</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.465291705563323</v>
+        <v>-2.469503214281549</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6911439207775566</v>
+        <v>0.6961051641904643</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4909170151419475</v>
       </c>
       <c r="E46" t="n">
-        <v>1.400879137960639</v>
+        <v>1.43111965401954</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.420177679602335</v>
+        <v>-2.424945466643198</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6683715507036536</v>
+        <v>0.6727531550244706</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4290713459711768</v>
       </c>
       <c r="E47" t="n">
-        <v>1.120018447001078</v>
+        <v>1.153411206888251</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.358543939516761</v>
+        <v>-2.363025557131805</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5575188594495015</v>
+        <v>0.5635050566222272</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3667530113825342</v>
       </c>
       <c r="E48" t="n">
-        <v>0.963696938099847</v>
+        <v>0.9973043250563834</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.307072864167957</v>
+        <v>-2.313011609777728</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4701203807277068</v>
+        <v>0.4777783329645229</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3060209141575241</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7397941832147253</v>
+        <v>0.7769874482825335</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.245866188148973</v>
+        <v>-2.251952398615926</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3953688385693632</v>
+        <v>0.4033480013861793</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2483978105055264</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6175166156492127</v>
+        <v>0.6549405683153845</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.196568394383486</v>
+        <v>-2.203302866202803</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3216276496899285</v>
+        <v>0.3289527109620174</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1961160817494679</v>
       </c>
       <c r="E51" t="n">
-        <v>0.453805803359893</v>
+        <v>0.4940797698995186</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.148831392027181</v>
+        <v>-2.15342470332118</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2639980914936713</v>
+        <v>0.2699594678488515</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1491216068218442</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3365449610347427</v>
+        <v>0.3771342979620045</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.071490454579611</v>
+        <v>-2.078601618806382</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2323938905178616</v>
+        <v>0.2389670270231325</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1077052113844313</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2026030692709605</v>
+        <v>0.2449371636668582</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.021461906744624</v>
+        <v>-2.028481817965713</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1345385473689787</v>
+        <v>0.1404167009829772</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.07001884247204561</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1649732498239706</v>
+        <v>0.2061320055066868</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.972901437265046</v>
+        <v>-1.979336599225726</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07312016437681342</v>
+        <v>0.0821972833579928</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03487019841547401</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.02341237520170612</v>
+        <v>0.02236597264064523</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.961084538041277</v>
+        <v>-1.968396458880548</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03050866084364304</v>
+        <v>0.03999313324218595</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0003932341909764856</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1428691298555831</v>
+        <v>-0.09573731743295942</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.85162984283417</v>
+        <v>-1.859899555221077</v>
       </c>
       <c r="G56" t="n">
-        <v>0.004195674149286469</v>
+        <v>0.01140247152601181</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.03438996542217355</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2988154063974504</v>
+        <v>-0.2498585338611908</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.771068039298055</v>
+        <v>-1.781358458242779</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0475966117795178</v>
+        <v>-0.04114611931388317</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.07028394572205532</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.33728037335244</v>
+        <v>-0.2893951761149074</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.758840136536695</v>
+        <v>-1.767104008731238</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.131613619122768</v>
+        <v>-0.1225102192759522</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.107424010684029</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5722678133437406</v>
+        <v>-0.5177729783986643</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.715266461311616</v>
+        <v>-1.723622316535886</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1520674328283079</v>
+        <v>-0.1424121348031287</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1460063674410222</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5939247066761892</v>
+        <v>-0.537318642191659</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.643732865145635</v>
+        <v>-1.653522487595178</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1945927935241147</v>
+        <v>-0.1844323188594811</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1853440553236267</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7351682989426059</v>
+        <v>-0.6742244315799859</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.650387764343997</v>
+        <v>-1.660886970165721</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2394673715981936</v>
+        <v>-0.2284133475019238</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2243587377194929</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9043148702743786</v>
+        <v>-0.8380374472356692</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.588230597017831</v>
+        <v>-1.600167950209101</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2954441553555421</v>
+        <v>-0.2829943252843637</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2620929814854818</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9802461312901765</v>
+        <v>-0.9109507888475588</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.622930099946368</v>
+        <v>-1.634573983471364</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3545308415465263</v>
+        <v>-0.3421014521486205</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2973616480719116</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.182356208370395</v>
+        <v>-1.108285048622415</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.589243870392922</v>
+        <v>-1.60074466920501</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3971949068109694</v>
+        <v>-0.3830631013390641</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3295685577802593</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.354901771657803</v>
+        <v>-1.274908656853097</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.5350614857393</v>
+        <v>-1.549330535731751</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4551996973665902</v>
+        <v>-0.4399436548646852</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3582887690977492</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.480715575699497</v>
+        <v>-1.399065306311609</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.568655732263018</v>
+        <v>-1.581330409740197</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4545762568317722</v>
+        <v>-0.4395698825534126</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3832168757541716</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.620983855841186</v>
+        <v>-1.537130373884118</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.53383942548721</v>
+        <v>-1.547522996195206</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5052822669809404</v>
+        <v>-0.4894217645693992</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.403696325655</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.770740988525692</v>
+        <v>-1.683863746972351</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.565966323679565</v>
+        <v>-1.579987165496561</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5165304774733009</v>
+        <v>-0.5001998395764872</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4187591001227016</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.870165883372301</v>
+        <v>-1.782618479745234</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.581582998059924</v>
+        <v>-1.595108883574102</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5223327085865721</v>
+        <v>-0.5061714362683037</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.427210221481462</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.99582784241254</v>
+        <v>-1.905753825564155</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.589756347272831</v>
+        <v>-1.603550881635736</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6039289561950957</v>
+        <v>-0.5857630378480096</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4291252311337623</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.072757776322519</v>
+        <v>-1.980680573493408</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.6027215743201</v>
+        <v>-1.616659193395915</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6458367165484481</v>
+        <v>-0.626088106070817</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4247652102878822</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.158650215438542</v>
+        <v>-2.065423954761885</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.601108221179646</v>
+        <v>-1.615432752999551</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6535340900837188</v>
+        <v>-0.634708229999542</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.414916842008048</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.143904459744409</v>
+        <v>-2.051515536647889</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.591195954690467</v>
+        <v>-1.606602382145736</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7041568774917052</v>
+        <v>-0.6833307515229835</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3997701818901798</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.187370091410761</v>
+        <v>-2.095179004830559</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.579620693425743</v>
+        <v>-1.595949871274466</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7029873789708873</v>
+        <v>-0.6818488027107111</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3794299611331485</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.084710460018743</v>
+        <v>-1.994809458869131</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.532061086912483</v>
+        <v>-1.551323501375841</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7246413522071542</v>
+        <v>-0.7022047931941602</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3547908008704768</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.063133139307249</v>
+        <v>-1.975638297411455</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.416947975329059</v>
+        <v>-1.438670570825599</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.726259085491881</v>
+        <v>-0.7049204826432504</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3267112503492109</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.913294243929653</v>
+        <v>-1.827477727314358</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.430516202237874</v>
+        <v>-1.452130754175686</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6867866853541643</v>
+        <v>-0.6656116078917155</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.295658928210135</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.764362038416511</v>
+        <v>-1.68190144233817</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.394216486601702</v>
+        <v>-1.416474919747605</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6961908551077073</v>
+        <v>-0.6742799134074404</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2617623049350579</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.597491682058465</v>
+        <v>-1.517114574605851</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.341064895900261</v>
+        <v>-1.362092508505528</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6683024765232602</v>
+        <v>-0.647965466664993</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2247990622030172</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.400176402908791</v>
+        <v>-1.325039408054447</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.328712889051174</v>
+        <v>-1.350327440988986</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5995064705277332</v>
+        <v>-0.5812091478524655</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1852660623255424</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.241292509608015</v>
+        <v>-1.168379167996126</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.215551861765295</v>
+        <v>-1.237772333660835</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5420229171405668</v>
+        <v>-0.5249622551982988</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1429539233101098</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.022970058526347</v>
+        <v>-0.9546003865733652</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.185070437771394</v>
+        <v>-1.207245648176116</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5022760279617593</v>
+        <v>-0.4870010048346726</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09857598489746089</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.7532217935866919</v>
+        <v>-0.6888059318638911</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.099765668011963</v>
+        <v>-1.121374379757411</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4726604124857673</v>
+        <v>-0.4586293503321347</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.05274014760585808</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4429630343166844</v>
+        <v>-0.3850502267907908</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.036919357986889</v>
+        <v>-1.057500195876337</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4175494372463275</v>
+        <v>-0.4044571860151492</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.007134661924141896</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2152101326158364</v>
+        <v>-0.1623943529753052</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9771814903473591</v>
+        <v>-0.9956875998996269</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.380153225493883</v>
+        <v>-0.3678800612417045</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.03689415697034485</v>
       </c>
       <c r="E86" t="n">
-        <v>0.05265905043081891</v>
+        <v>0.09929444650253366</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9242094855611006</v>
+        <v>-0.9421257356846412</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2885819293282713</v>
+        <v>-0.2784491955773649</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.07786495366777543</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3043976221691149</v>
+        <v>0.3450380607795586</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.821057087938401</v>
+        <v>-0.8367423845790332</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.223884278323925</v>
+        <v>-0.2150670479029274</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1149636129893235</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5107272382320596</v>
+        <v>0.5478825420495042</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.688214612387073</v>
+        <v>-0.7013725657823423</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.192429002253388</v>
+        <v>-0.1847929507379355</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1465495952639388</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7924405972767111</v>
+        <v>0.8226314717005212</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5335268972995691</v>
+        <v>-0.544258250767748</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1152508601679542</v>
+        <v>-0.1096340551622284</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1717106917402206</v>
       </c>
       <c r="E90" t="n">
-        <v>1.041961355964917</v>
+        <v>1.066744212260001</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3964546624288787</v>
+        <v>-0.4067991031529668</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06180725984833217</v>
+        <v>-0.05741105504660608</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1904295799263746</v>
       </c>
       <c r="E91" t="n">
-        <v>1.220033201276415</v>
+        <v>1.240805305465773</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2176586332642903</v>
+        <v>-0.2270934640277423</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03639220272988445</v>
+        <v>-0.03413350833324869</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2030749055623669</v>
       </c>
       <c r="E92" t="n">
-        <v>1.340989425319655</v>
+        <v>1.358226753080923</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.06994556790705726</v>
+        <v>-0.07742685432487344</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03767412495370229</v>
+        <v>-0.03539206978761199</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2107299253072066</v>
       </c>
       <c r="E93" t="n">
-        <v>1.44548506718599</v>
+        <v>1.458583158609532</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09677440349762524</v>
+        <v>0.08996035905735435</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03706090475552063</v>
+        <v>-0.0354431714707938</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.213828636009998</v>
       </c>
       <c r="E94" t="n">
-        <v>1.450437550310353</v>
+        <v>1.459191998663441</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2346803258282246</v>
+        <v>0.2289554772637716</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05801697500433319</v>
+        <v>-0.05767678379915146</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2133542687593508</v>
       </c>
       <c r="E95" t="n">
-        <v>1.491587545704523</v>
+        <v>1.495910748101704</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4005607695806346</v>
+        <v>0.3938927299494546</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0811485169085997</v>
+        <v>-0.08251220182550843</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2100439663811755</v>
       </c>
       <c r="E96" t="n">
-        <v>1.430579436225903</v>
+        <v>1.432848350959176</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4434219413373504</v>
+        <v>0.436967068727443</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1179315084628626</v>
+        <v>-0.1186483920754987</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2050856814425127</v>
       </c>
       <c r="E97" t="n">
-        <v>1.359644459777195</v>
+        <v>1.360575970459195</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5214396110750567</v>
+        <v>0.5145379637493313</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1536326043817621</v>
+        <v>-0.1529507619233077</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.197133726123189</v>
       </c>
       <c r="E98" t="n">
-        <v>1.267808894907129</v>
+        <v>1.269483570067401</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5462283075625045</v>
+        <v>0.5393076796115973</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1933546727430241</v>
+        <v>-0.1930115614416606</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1871340122062257</v>
       </c>
       <c r="E99" t="n">
-        <v>1.205426880174964</v>
+        <v>1.206816845957509</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5706461518348617</v>
+        <v>0.5648001192788632</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2165957182541088</v>
+        <v>-0.2156291664179272</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1717114632248539</v>
       </c>
       <c r="E100" t="n">
-        <v>1.108816958047626</v>
+        <v>1.109006764299444</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5445142111037777</v>
+        <v>0.5381527815716886</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2328956951410135</v>
+        <v>-0.23226349431765</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1527850747431199</v>
       </c>
       <c r="E101" t="n">
-        <v>1.020535150230832</v>
+        <v>1.020631513404832</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5298597084153271</v>
+        <v>0.5236209229228743</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2245456801091067</v>
+        <v>-0.2246245227060157</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1207859971200211</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9526969357829409</v>
+        <v>0.9506426481190323</v>
       </c>
       <c r="F102" t="n">
-        <v>0.470085339573525</v>
+        <v>0.4648948686103446</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2514310056550995</v>
+        <v>-0.2507477031485542</v>
       </c>
     </row>
   </sheetData>
